--- a/public/feed.xlsx
+++ b/public/feed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ConverterCloud\Adwise\JnJ Motilegas Nov 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dashboard New\dashboard new 0912\adverter-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA454DA8-6D12-4227-8904-640D0994EC0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="6" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>type</t>
   </si>
@@ -166,12 +165,24 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>{label: "Текст ", editable: 1}</t>
+  </si>
+  <si>
+    <t>{label: "Текст вверху", editable: 1}</t>
+  </si>
+  <si>
+    <t>{ label: "123", editable: 1}</t>
+  </si>
+  <si>
+    <t>{label: "Текст вверху", editable: 0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -362,7 +373,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -728,26 +739,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -765,44 +776,53 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="40.53515625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="40.5703125" style="6"/>
-    <col min="7" max="11" width="14.7109375" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="40.5703125" style="6"/>
+    <col min="1" max="1" width="10.3828125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.53515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="56.15234375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="40.53515625" style="6"/>
+    <col min="7" max="11" width="14.69140625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="40.53515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -823,7 +843,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -837,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>36</v>
       </c>
@@ -851,69 +871,69 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15.9" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.28515625" style="9" customWidth="1"/>
-    <col min="3" max="10" width="9.7109375" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="30.3828125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.3046875" style="9" customWidth="1"/>
+    <col min="3" max="10" width="9.69140625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.15234375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="47.6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="31.75" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="31.75" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="31.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -921,25 +941,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="63.45" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -947,7 +967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="31.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -955,12 +975,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="31.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -968,33 +988,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="47.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1002,41 +1022,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1068,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{A0BB3AD1-8588-4970-A783-D5DA3A04549B}">
-            <xm:f>EXACT('C:\ConverterCloud\[clients.xlsx]clients'!#REF!,#REF!)</xm:f>
+            <xm:f>EXACT('\ConverterCloud\[clients.xlsx]clients'!#REF!,#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/public/feed.xlsx
+++ b/public/feed.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>type</t>
   </si>
@@ -167,16 +167,13 @@
     <t>common</t>
   </si>
   <si>
-    <t>{label: "Текст ", editable: 1}</t>
-  </si>
-  <si>
-    <t>{label: "Текст вверху", editable: 1}</t>
-  </si>
-  <si>
-    <t>{ label: "123", editable: 1}</t>
-  </si>
-  <si>
-    <t>{label: "Текст вверху", editable: 0}</t>
+    <t>{label: "Новый текст ", editable: 1}</t>
+  </si>
+  <si>
+    <t>{ label: "Текст вверху", editable: 1}</t>
+  </si>
+  <si>
+    <t>{label: "Текст внизу", editable: 1}</t>
   </si>
 </sst>
 </file>
@@ -813,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">

--- a/public/feed.xlsx
+++ b/public/feed.xlsx
@@ -170,10 +170,10 @@
     <t>{label: "Новый текст ", editable: 1}</t>
   </si>
   <si>
-    <t>{ label: "Текст вверху", editable: 1}</t>
-  </si>
-  <si>
-    <t>{label: "Текст внизу", editable: 1}</t>
+    <t>{label: "Текст внизу", editable: 2}</t>
+  </si>
+  <si>
+    <t>{ label: "Текст  вверху", editable: "yes"}</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.53515625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -810,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
